--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1864722.973397198</v>
+        <v>1900041.728722965</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914458</v>
+        <v>426806.9758914463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478709</v>
+        <v>8362709.488478707</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -709,16 +709,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.29749587628852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>138.7407494993528</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>123.2323531192243</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>36.21593518981624</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>1.002943156505903</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>189.2526844818452</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.7050131246913</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>131.3980055647953</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>229.7753398494335</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>53.97843772411468</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>326.1113081874333</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>43.75153736609984</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>65.90747854024187</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59.19197445244119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.0843475230333</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>80.30409745858505</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1697,16 +1697,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>52.1829371375707</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>153.9561866171907</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>405.7777094693085</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597632</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>280.0886003670346</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>83.29896986725154</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>70.09267063964604</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>134.7307170396222</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>153.9306094709474</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>148.4031503829016</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>199.4268731169153</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,10 +2165,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>41.16551806305293</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>17.44731957864619</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.43045686770213</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>13.08993799274015</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>188.8370229665908</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>49.13729406266417</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2459,7 +2459,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>158.8087079051065</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>93.40038367321634</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>141.605924235581</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>26.73110927253554</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>13.31299971990489</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47.23959131629378</v>
+        <v>141.6059242355808</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>75.46400677166065</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.8593743973691</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2885,13 +2885,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>122.9808755242954</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>70.09267063964604</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>44.41568638565873</v>
       </c>
       <c r="G31" t="n">
-        <v>153.9561866171905</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>165.6360158325081</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>345.1839864002923</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3116,13 +3116,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>64.7588051995878</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>131.9680216153334</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.4092130247883</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>47.61011138093986</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>74.05354577132783</v>
       </c>
       <c r="G35" t="n">
-        <v>217.3980954002153</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -3322,10 +3322,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.04449791804963</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.93935696335366</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>20.08180590768779</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>311.360547973686</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>142.9459755379324</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>192.9437564890477</v>
+        <v>123.4811043909671</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>387.4997858911306</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>103.7557124019152</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
-        <v>150.7617616219094</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>47.61011138094008</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>326.1924309016296</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -4033,10 +4033,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>105.3155399704207</v>
+        <v>223.8219435245709</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>74.40951513808766</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,7 +4115,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>132.203723304543</v>
       </c>
       <c r="U46" t="n">
-        <v>283.4244440311574</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540.6514970160482</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>297.2027203719481</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>53.75394372784808</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>784.1002736601483</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>408.3031853286819</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>408.3031853286819</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>408.3031853286819</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,10 +4412,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
         <v>304.2053859195205</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>823.9149842991687</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>616.0634840936359</v>
+        <v>738.4105017006691</v>
       </c>
       <c r="Y3" t="n">
-        <v>408.3031853286819</v>
+        <v>530.6502029357152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224.7171143937231</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="C6" t="n">
-        <v>224.7171143937231</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="D6" t="n">
-        <v>224.7171143937231</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E6" t="n">
-        <v>224.7171143937231</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>224.7171143937231</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>432.4774131586771</v>
+        <v>772.8928277511966</v>
       </c>
       <c r="X6" t="n">
-        <v>432.4774131586771</v>
+        <v>565.0413275456638</v>
       </c>
       <c r="Y6" t="n">
-        <v>224.7171143937231</v>
+        <v>565.0413275456638</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4749,28 +4749,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4840,16 +4840,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>152.0064012564706</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>252.1315786412141</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
         <v>41.77557929797318</v>
@@ -5004,10 +5004,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.259021858348</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.259021858348</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D11" t="n">
         <v>877.9933232515971</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2386.463952159361</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2386.463952159361</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2386.463952159361</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2386.463952159361</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>2386.463952159361</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W11" t="n">
-        <v>2386.463952159361</v>
+        <v>1641.598413488489</v>
       </c>
       <c r="X11" t="n">
-        <v>2012.998193898281</v>
+        <v>1268.132655227409</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.858861922469</v>
+        <v>877.9933232515971</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779.8344674874215</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C12" t="n">
-        <v>605.3814382062945</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D12" t="n">
-        <v>456.4470285450433</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E12" t="n">
-        <v>297.2095735395878</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F12" t="n">
-        <v>297.2095735395878</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G12" t="n">
-        <v>159.1796859887494</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>81.93751399838814</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883252</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L12" t="n">
-        <v>697.3559079137185</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309281</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N12" t="n">
         <v>1714.953720827627</v>
@@ -5144,28 +5144,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521037</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368206</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U12" t="n">
-        <v>1853.051068437921</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V12" t="n">
-        <v>1617.898960206178</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477976</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272443</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074896</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="F13" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>424.5997883913116</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>364.8099152070275</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>364.8099152070275</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V13" t="n">
-        <v>364.8099152070275</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y13" t="n">
-        <v>364.8099152070275</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1962.231396731293</v>
+        <v>1376.652681764792</v>
       </c>
       <c r="C14" t="n">
-        <v>1593.268879790881</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="D14" t="n">
-        <v>1593.268879790881</v>
+        <v>1007.69016482438</v>
       </c>
       <c r="E14" t="n">
-        <v>1207.480627192637</v>
+        <v>621.901912226136</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2040.094374027286</v>
+        <v>2140.257772001683</v>
       </c>
       <c r="V14" t="n">
-        <v>2040.094374027286</v>
+        <v>2140.257772001683</v>
       </c>
       <c r="W14" t="n">
-        <v>2040.094374027286</v>
+        <v>2140.257772001683</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.094374027286</v>
+        <v>1766.792013740604</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.094374027286</v>
+        <v>1376.652681764792</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D15" t="n">
-        <v>398.7971326015548</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E15" t="n">
-        <v>239.5596775960993</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F15" t="n">
-        <v>186.8496400834017</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G15" t="n">
-        <v>48.81975253256327</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H15" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K15" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L15" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M15" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N15" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O15" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5384,25 +5384,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2222.939999577549</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F16" t="n">
         <v>48.81975253256327</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>412.9009368039367</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>123.721849281329</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1263.781575849841</v>
+        <v>1375.543251186607</v>
       </c>
       <c r="C17" t="n">
-        <v>1263.781575849841</v>
+        <v>1006.580734246196</v>
       </c>
       <c r="D17" t="n">
-        <v>1263.781575849841</v>
+        <v>1006.580734246196</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9933232515971</v>
+        <v>620.7924816479513</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>620.7924816479513</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H17" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540044</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5542,25 +5542,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2190.61837996229</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>1936.838685974173</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="V17" t="n">
-        <v>1936.838685974173</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="W17" t="n">
-        <v>1936.838685974173</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="X17" t="n">
-        <v>1653.920907825653</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="Y17" t="n">
-        <v>1263.781575849841</v>
+        <v>1762.143091250729</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F18" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5624,22 +5624,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="19">
@@ -5688,37 +5688,37 @@
         <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801509</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807579</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T19" t="n">
-        <v>412.9009368039364</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U19" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V19" t="n">
-        <v>276.8093034305806</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W19" t="n">
-        <v>276.8093034305806</v>
+        <v>230.468217362803</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>736.5727550803538</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="C20" t="n">
-        <v>736.5727550803538</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="D20" t="n">
-        <v>378.3070564736033</v>
+        <v>1027.895495355538</v>
       </c>
       <c r="E20" t="n">
-        <v>378.3070564736033</v>
+        <v>1027.895495355538</v>
       </c>
       <c r="F20" t="n">
-        <v>378.3070564736033</v>
+        <v>616.9095905659306</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>198.7219246365043</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>198.7219246365043</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V20" t="n">
-        <v>2239.546340651481</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W20" t="n">
-        <v>1886.777685381367</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="X20" t="n">
-        <v>1513.311927120287</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="Y20" t="n">
-        <v>1123.172595144476</v>
+        <v>1386.161193962289</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>940.2321985945478</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>765.7791693134208</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>616.8447596521695</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E21" t="n">
-        <v>457.607304646714</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F21" t="n">
-        <v>311.072746673599</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>173.0428591227606</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>66.44330766250891</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5840,7 +5840,7 @@
         <v>728.4044351658747</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
         <v>1557.865593173221</v>
@@ -5855,28 +5855,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R21" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2241.626303475332</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>2013.448799545047</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1778.296691313304</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1524.059334585103</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1316.20783437957</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>1108.447535614616</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
         <v>48.81975253256327</v>
@@ -5940,22 +5940,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>412.9009368039365</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>412.9009368039365</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>412.9009368039365</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W22" t="n">
-        <v>412.9009368039365</v>
+        <v>62.04191212118968</v>
       </c>
       <c r="X22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y22" t="n">
-        <v>412.9009368039365</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>987.3693719727053</v>
+        <v>938.0140410570359</v>
       </c>
       <c r="C23" t="n">
-        <v>987.3693719727053</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="D23" t="n">
-        <v>629.1036733659547</v>
+        <v>569.0515241166243</v>
       </c>
       <c r="E23" t="n">
-        <v>629.1036733659547</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F23" t="n">
-        <v>629.1036733659547</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G23" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K23" t="n">
         <v>412.307967997759</v>
@@ -6022,19 +6022,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2187.207932640046</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>2137.574302273719</v>
+        <v>2088.218971358049</v>
       </c>
       <c r="X23" t="n">
-        <v>1764.108544012639</v>
+        <v>1714.753213096969</v>
       </c>
       <c r="Y23" t="n">
-        <v>1373.969212036827</v>
+        <v>1324.613881121158</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D24" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E24" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F24" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G24" t="n">
         <v>48.81975253256327</v>
@@ -6074,7 +6074,7 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M24" t="n">
         <v>1222.807150561437</v>
@@ -6107,13 +6107,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X24" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.9897048505183</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="C25" t="n">
-        <v>290.0535219226114</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="D25" t="n">
-        <v>195.7097000304736</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="E25" t="n">
-        <v>195.7097000304736</v>
+        <v>191.8560396392108</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O25" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X25" t="n">
-        <v>640.638169680758</v>
+        <v>412.6486187827409</v>
       </c>
       <c r="Y25" t="n">
-        <v>640.638169680758</v>
+        <v>191.8560396392108</v>
       </c>
     </row>
     <row r="26">
@@ -6229,10 +6229,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S26" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T26" t="n">
-        <v>2413.986506150855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U26" t="n">
-        <v>2413.986506150855</v>
+        <v>2358.449553430304</v>
       </c>
       <c r="V26" t="n">
-        <v>2413.986506150855</v>
+        <v>2027.386666086733</v>
       </c>
       <c r="W26" t="n">
-        <v>2413.986506150855</v>
+        <v>2027.386666086733</v>
       </c>
       <c r="X26" t="n">
-        <v>2040.520747889775</v>
+        <v>1653.920907825653</v>
       </c>
       <c r="Y26" t="n">
-        <v>1650.381415913963</v>
+        <v>1263.781575849841</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6305,25 +6305,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
       <c r="C28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
       <c r="D28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
       <c r="E28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
       <c r="F28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6420,16 +6420,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V28" t="n">
-        <v>385.9536814748711</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W28" t="n">
-        <v>96.53651143791052</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X28" t="n">
-        <v>96.53651143791052</v>
+        <v>412.6486187827406</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.53651143791052</v>
+        <v>191.8560396392105</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1290.782696327151</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C29" t="n">
-        <v>921.820179386739</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D29" t="n">
-        <v>921.820179386739</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E29" t="n">
-        <v>536.0319267884947</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F29" t="n">
-        <v>125.0460219988872</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6493,22 +6493,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.937753499508</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>1968.158059511391</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="X29" t="n">
-        <v>2067.521868367084</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="Y29" t="n">
-        <v>1677.382536391272</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>816.0090920043505</v>
+        <v>850.7452172829803</v>
       </c>
       <c r="C30" t="n">
-        <v>641.5560627232235</v>
+        <v>676.2921880018533</v>
       </c>
       <c r="D30" t="n">
-        <v>492.6216530619722</v>
+        <v>527.3577783406021</v>
       </c>
       <c r="E30" t="n">
-        <v>333.3841980565167</v>
+        <v>368.1203233351466</v>
       </c>
       <c r="F30" t="n">
-        <v>186.8496400834017</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="G30" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2117.403196885135</v>
+        <v>2152.139322163765</v>
       </c>
       <c r="U30" t="n">
-        <v>1889.225692954849</v>
+        <v>1923.961818233479</v>
       </c>
       <c r="V30" t="n">
-        <v>1654.073584723107</v>
+        <v>1688.809710001737</v>
       </c>
       <c r="W30" t="n">
-        <v>1399.836227994905</v>
+        <v>1434.572353273535</v>
       </c>
       <c r="X30" t="n">
-        <v>1191.984727789372</v>
+        <v>1226.720853068002</v>
       </c>
       <c r="Y30" t="n">
-        <v>984.2244290244184</v>
+        <v>1018.960554303048</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="C31" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="D31" t="n">
-        <v>351.2209996437974</v>
+        <v>262.7842973916007</v>
       </c>
       <c r="E31" t="n">
-        <v>351.2209996437974</v>
+        <v>262.7842973916007</v>
       </c>
       <c r="F31" t="n">
-        <v>204.331052145887</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G31" t="n">
         <v>48.81975253256327</v>
@@ -6651,22 +6651,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="W31" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="X31" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.2209996437974</v>
+        <v>412.9009368039365</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1207.398685057086</v>
+        <v>1194.264603254044</v>
       </c>
       <c r="C32" t="n">
-        <v>1207.398685057086</v>
+        <v>1194.264603254044</v>
       </c>
       <c r="D32" t="n">
-        <v>1207.398685057086</v>
+        <v>1194.264603254044</v>
       </c>
       <c r="E32" t="n">
-        <v>1040.089578155562</v>
+        <v>808.4763506557995</v>
       </c>
       <c r="F32" t="n">
-        <v>629.1036733659547</v>
+        <v>397.4904458661919</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256327</v>
@@ -6742,10 +6742,10 @@
         <v>1971.003775293977</v>
       </c>
       <c r="X32" t="n">
-        <v>1597.538017032897</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="Y32" t="n">
-        <v>1207.398685057086</v>
+        <v>1580.864443318166</v>
       </c>
     </row>
     <row r="33">
@@ -6764,10 +6764,10 @@
         <v>398.7971326015548</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
         <v>48.81975253256327</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="C34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="D34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="E34" t="n">
-        <v>364.8099152070275</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F34" t="n">
         <v>217.9199677091171</v>
@@ -6885,25 +6885,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>592.547148083849</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>364.8099152070275</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>364.8099152070275</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>364.8099152070275</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y34" t="n">
-        <v>364.8099152070275</v>
+        <v>351.2209996437974</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>841.4959479839292</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="C35" t="n">
-        <v>841.4959479839292</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="D35" t="n">
-        <v>841.4959479839292</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="E35" t="n">
-        <v>841.4959479839292</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="F35" t="n">
-        <v>430.5100431943217</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H35" t="n">
         <v>210.9160074365284</v>
@@ -6937,7 +6937,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
@@ -6970,19 +6970,19 @@
         <v>1971.003775293977</v>
       </c>
       <c r="U35" t="n">
-        <v>1971.003775293977</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V35" t="n">
-        <v>1971.003775293977</v>
+        <v>1386.161193962289</v>
       </c>
       <c r="W35" t="n">
-        <v>1618.235120023863</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="X35" t="n">
-        <v>1618.235120023863</v>
+        <v>1033.392538692174</v>
       </c>
       <c r="Y35" t="n">
-        <v>1228.095788048051</v>
+        <v>1033.392538692174</v>
       </c>
     </row>
     <row r="36">
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2421.750760044275</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.353028937149</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2061.991705784318</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>365.6690290428633</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="C37" t="n">
-        <v>196.7328461149564</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="D37" t="n">
-        <v>196.7328461149564</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>419.8455905372278</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>272.9556430393175</v>
       </c>
       <c r="G37" t="n">
-        <v>48.81975253256327</v>
+        <v>272.9556430393175</v>
       </c>
       <c r="H37" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
         <v>48.81975253256327</v>
@@ -7131,16 +7131,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V37" t="n">
-        <v>385.9536814748711</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W37" t="n">
-        <v>365.6690290428633</v>
+        <v>640.638169680758</v>
       </c>
       <c r="X37" t="n">
-        <v>365.6690290428633</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Y37" t="n">
-        <v>365.6690290428633</v>
+        <v>419.8455905372278</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>825.27311706874</v>
+        <v>1160.099513934239</v>
       </c>
       <c r="C38" t="n">
-        <v>825.27311706874</v>
+        <v>1160.099513934239</v>
       </c>
       <c r="D38" t="n">
-        <v>467.0074184619895</v>
+        <v>1160.099513934239</v>
       </c>
       <c r="E38" t="n">
-        <v>467.0074184619895</v>
+        <v>774.3112613359951</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0074184619895</v>
+        <v>363.3253565463876</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7180,7 +7180,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2040.094374027286</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="U38" t="n">
-        <v>2040.094374027286</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="V38" t="n">
-        <v>1709.031486683716</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="W38" t="n">
-        <v>1356.262831413602</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="X38" t="n">
-        <v>1356.262831413602</v>
+        <v>1936.838685974173</v>
       </c>
       <c r="Y38" t="n">
-        <v>1211.872957132862</v>
+        <v>1546.699353998361</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L39" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M39" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N39" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O39" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.7559354604702</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="E40" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="F40" t="n">
-        <v>48.81975253256327</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="G40" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H40" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I40" t="n">
         <v>48.81975253256327</v>
@@ -7368,16 +7368,16 @@
         <v>640.638169680758</v>
       </c>
       <c r="V40" t="n">
-        <v>445.7454863584875</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="W40" t="n">
-        <v>445.7454863584875</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="X40" t="n">
-        <v>217.7559354604702</v>
+        <v>515.9097814070539</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.7559354604702</v>
+        <v>515.9097814070539</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>851.219582464727</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C41" t="n">
-        <v>851.219582464727</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D41" t="n">
-        <v>851.219582464727</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E41" t="n">
-        <v>851.219582464727</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
-        <v>440.2336776751194</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7411,19 +7411,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697323</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977595</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540051</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>2221.37302195985</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>1967.593327971733</v>
+        <v>1935.290624126362</v>
       </c>
       <c r="V41" t="n">
-        <v>1967.593327971733</v>
+        <v>1604.227736782791</v>
       </c>
       <c r="W41" t="n">
-        <v>1614.824672701619</v>
+        <v>1251.459081512677</v>
       </c>
       <c r="X41" t="n">
-        <v>1241.358914440539</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="Y41" t="n">
-        <v>851.219582464727</v>
+        <v>877.9933232515971</v>
       </c>
     </row>
     <row r="42">
@@ -7493,13 +7493,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
         <v>1557.865593173221</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.2209996437974</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="C43" t="n">
-        <v>351.2209996437974</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="D43" t="n">
-        <v>201.1043602314616</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="E43" t="n">
-        <v>201.1043602314616</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="F43" t="n">
-        <v>201.1043602314616</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G43" t="n">
-        <v>201.1043602314616</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T43" t="n">
-        <v>640.638169680758</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U43" t="n">
-        <v>640.638169680758</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="V43" t="n">
-        <v>640.638169680758</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437974</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="X43" t="n">
-        <v>351.2209996437974</v>
+        <v>364.8099152070275</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.2209996437974</v>
+        <v>364.8099152070275</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="C44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="D44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="E44" t="n">
-        <v>1207.480627192637</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F44" t="n">
-        <v>796.4947224030295</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G44" t="n">
         <v>378.3070564736033</v>
@@ -7648,10 +7648,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,40 +7660,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T44" t="n">
-        <v>2040.094374027286</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U44" t="n">
-        <v>2040.094374027286</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V44" t="n">
-        <v>1933.715040723831</v>
+        <v>1491.141310068919</v>
       </c>
       <c r="W44" t="n">
-        <v>1580.946385453717</v>
+        <v>1138.372654798805</v>
       </c>
       <c r="X44" t="n">
-        <v>1207.480627192637</v>
+        <v>764.9068965377251</v>
       </c>
       <c r="Y44" t="n">
-        <v>1207.480627192637</v>
+        <v>764.9068965377251</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>957.3366797756757</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>782.8836504945488</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>633.9492408332975</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>474.711785827842</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>328.177227854727</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>190.1473403038886</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7763,16 +7763,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1333.312315560698</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1125.552016795744</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F46" t="n">
-        <v>207.4609049796586</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7836,22 +7836,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>507.0990552317248</v>
       </c>
       <c r="U46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="V46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="W46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.3508524775689</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,16 +8543,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085704</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>447.9802256040016</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>339.4781965639073</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194305</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617109</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918564</v>
       </c>
       <c r="N21" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>289.30534918541</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029008</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>233.1030882730269</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443489</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.42125502186162</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -23320,7 +23320,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>23.12966052997973</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.78201857954933</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>92.8862752558129</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>132.3311100301909</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
         <v>157.0547409226243</v>
@@ -23466,19 +23466,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>166.2678860956121</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.6494941404472</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>170.9377995896512</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23585,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>25.8757935647466</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>177.9845675425499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.228079800823423</v>
       </c>
       <c r="H17" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>89.64250031143445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>61.77024252613234</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.64958867533</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552442</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23864,7 +23864,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617344</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407327</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,19 +23943,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>151.5565796077594</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>132.5923888656436</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>12.07214197202387</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>128.3253853532196</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,10 +24053,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>106.2795475015858</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.05747717687822</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>101.9787561570862</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
         <v>52.22830032617343</v>
@@ -24180,19 +24180,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>212.619717396297</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>193.093347105671</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24262,13 +24262,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>300.1036746547488</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -24347,7 +24347,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>55.21508934499602</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.815123787350245</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.66858347344076</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
@@ -24499,10 +24499,10 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>237.9288973283313</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>61.77024252613235</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>120.1696217084946</v>
+        <v>25.80328878920756</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24660,16 +24660,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>338.5417824984713</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24733,19 +24733,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0.5590842242613405</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>35.81287827175935</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>127.2750392816566</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>101.0053616372725</v>
       </c>
       <c r="G31" t="n">
-        <v>13.45302640759786</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24891,7 +24891,7 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2872966473816</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>216.2943542397537</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>68.82180286983964</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25004,13 +25004,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>92.88627525581315</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>14.46594103123576</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>166.2678860956123</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>332.8224999703836</v>
       </c>
       <c r="G35" t="n">
-        <v>196.6076938699167</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.02889906600392</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>73.11538395927063</v>
       </c>
       <c r="I37" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>52.22830032617343</v>
@@ -25371,16 +25371,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>266.4411924289032</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>102.6452412964459</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>243.2919631181212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>52.22830032617343</v>
@@ -25608,13 +25608,13 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>59.19388683478027</v>
+        <v>128.6565389328609</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>26.50600337900141</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>147.486184646321</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,19 +25791,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.292979300714933</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
         <v>137.955174638333</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25839,16 +25839,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>238.6771852664415</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>222.4367184997142</v>
+        <v>103.930314945564</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>31.12404080756151</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26076,10 +26076,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>93.25613724351024</v>
       </c>
       <c r="U46" t="n">
-        <v>2.862852616224188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600522.2904494946</v>
+        <v>600522.2904494944</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>600522.2904494945</v>
+        <v>600522.2904494944</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>600522.2904494943</v>
+        <v>600522.2904494944</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>600522.2904494943</v>
+        <v>600522.2904494945</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>600522.2904494945</v>
+        <v>600522.2904494946</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>600522.2904494946</v>
+        <v>600522.2904494945</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>600522.2904494946</v>
+        <v>600522.2904494945</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>600522.2904494944</v>
+        <v>600522.2904494945</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="F2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676204</v>
       </c>
       <c r="G2" t="n">
         <v>366042.2311676205</v>
       </c>
       <c r="H2" t="n">
+        <v>366042.2311676205</v>
+      </c>
+      <c r="I2" t="n">
         <v>366042.2311676203</v>
-      </c>
-      <c r="I2" t="n">
-        <v>366042.2311676205</v>
       </c>
       <c r="J2" t="n">
         <v>366042.2311676205</v>
@@ -26346,16 +26346,16 @@
         <v>366042.2311676205</v>
       </c>
       <c r="M2" t="n">
+        <v>366042.2311676203</v>
+      </c>
+      <c r="N2" t="n">
         <v>366042.2311676204</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>366042.2311676205</v>
       </c>
-      <c r="O2" t="n">
-        <v>366042.2311676204</v>
-      </c>
       <c r="P2" t="n">
-        <v>366042.2311676205</v>
+        <v>366042.2311676203</v>
       </c>
     </row>
     <row r="3">
@@ -26432,7 +26432,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="G4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="H4" t="n">
         <v>18029.85379262113</v>
@@ -26444,13 +26444,13 @@
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
       </c>
       <c r="M4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="N4" t="n">
         <v>18029.85379262113</v>
@@ -26459,7 +26459,7 @@
         <v>18029.85379262113</v>
       </c>
       <c r="P4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129292.2770876418</v>
+        <v>129292.2770876416</v>
       </c>
       <c r="C6" t="n">
         <v>210061.7086191895</v>
       </c>
       <c r="D6" t="n">
-        <v>210061.7086191896</v>
+        <v>210061.7086191893</v>
       </c>
       <c r="E6" t="n">
-        <v>-72527.88435185146</v>
+        <v>-66255.85223549236</v>
       </c>
       <c r="F6" t="n">
-        <v>296907.4147809288</v>
+        <v>303179.4468972877</v>
       </c>
       <c r="G6" t="n">
-        <v>296907.4147809287</v>
+        <v>303179.4468972877</v>
       </c>
       <c r="H6" t="n">
-        <v>296907.4147809286</v>
+        <v>303179.4468972877</v>
       </c>
       <c r="I6" t="n">
-        <v>296907.4147809287</v>
+        <v>303179.4468972876</v>
       </c>
       <c r="J6" t="n">
-        <v>233847.4721818224</v>
+        <v>240119.5042981814</v>
       </c>
       <c r="K6" t="n">
-        <v>296907.4147809287</v>
+        <v>303179.4468972878</v>
       </c>
       <c r="L6" t="n">
-        <v>296907.4147809288</v>
+        <v>303179.4468972878</v>
       </c>
       <c r="M6" t="n">
-        <v>204893.1694998356</v>
+        <v>211165.2016161945</v>
       </c>
       <c r="N6" t="n">
-        <v>296907.4147809287</v>
+        <v>303179.4468972877</v>
       </c>
       <c r="O6" t="n">
-        <v>296907.4147809286</v>
+        <v>303179.4468972878</v>
       </c>
       <c r="P6" t="n">
-        <v>296907.4147809287</v>
+        <v>303179.4468972876</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445107</v>
+        <v>322.6158759445108</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>229.0037046816519</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>367.9404427797651</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27466,7 +27466,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>112.9542336615668</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>82.5406320842532</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>57.07350359897357</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>346.5179064736643</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3405740067047</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>62.44229867907438</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.0288285387892</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>42.30927575296769</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>41.31049342352048</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27955,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>21.91964331148608</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>47.2544399028796</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32229,10 +32229,10 @@
         <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
-        <v>13.28237121413756</v>
+        <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548041</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J17" t="n">
         <v>110.0768611093283</v>
@@ -32241,31 +32241,31 @@
         <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733201</v>
+        <v>204.6681601733202</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253932</v>
+        <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
         <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
-        <v>218.521188615259</v>
+        <v>218.5211886152591</v>
       </c>
       <c r="P17" t="n">
-        <v>186.502778816746</v>
+        <v>186.5027788167461</v>
       </c>
       <c r="Q17" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517336</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S17" t="n">
-        <v>29.55420813300719</v>
+        <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500886</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806458</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H18" t="n">
-        <v>6.70188829084729</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472364</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K18" t="n">
         <v>112.0542330627269</v>
@@ -32335,19 +32335,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876454</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858958</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518917</v>
+        <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214776</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704291</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815273</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
@@ -32399,31 +32399,31 @@
         <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223817</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526552</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613036</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188941</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501259</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762111</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R19" t="n">
-        <v>26.1583298757631</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228196</v>
+        <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
         <v>0.03173270910929617</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K24" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R24" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L25" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P25" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K42" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R42" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L43" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P43" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,16 +35263,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.45228430891401</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35500,7 +35500,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
-        <v>528.4798964831782</v>
+        <v>497.1177477436264</v>
       </c>
       <c r="O12" t="n">
         <v>416.3693146658877</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
-        <v>382.95671022767</v>
+        <v>351.5945614881181</v>
       </c>
       <c r="M15" t="n">
         <v>499.39668221774</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.1275717547158</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537833</v>
+        <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
         <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419014</v>
+        <v>439.3515785419015</v>
       </c>
       <c r="O17" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
-        <v>277.0684912329591</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q17" t="n">
         <v>130.0651205780292</v>
@@ -36053,13 +36053,13 @@
         <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
-        <v>133.1582877853589</v>
+        <v>133.158287785359</v>
       </c>
       <c r="O19" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990608</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,10 +36208,10 @@
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595964</v>
       </c>
       <c r="N21" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
         <v>416.3693146658877</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
-        <v>338.4428713250347</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O24" t="n">
         <v>416.3693146658877</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009465</v>
@@ -36685,7 +36685,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
@@ -36694,7 +36694,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36922,7 +36922,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912688</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
@@ -37396,7 +37396,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37624,7 +37624,7 @@
         <v>64.8144330484658</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009465</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37633,7 +37633,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009465</v>
+        <v>48.64100594280286</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
